--- a/Jogos_do_Dia/2023-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,124 +673,124 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.21</v>
+        <v>2.76</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -812,124 +812,124 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R3" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.95</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.25</v>
@@ -996,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1026,10 +1026,10 @@
         <v>1.76</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="AE4" t="n">
         <v>1.19</v>
@@ -1111,10 +1111,10 @@
         <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="T5" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1301,13 +1301,13 @@
         <v>0.55</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AE6" t="n">
         <v>1.75</v>
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>5.01</v>
+        <v>3.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1440,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AE7" t="n">
         <v>1.59</v>
@@ -1458,10 +1458,10 @@
         <v>2.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.51</v>
@@ -1482,10 +1482,10 @@
         <v>1.48</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1552,10 +1552,10 @@
         <v>3.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1579,13 +1579,13 @@
         <v>1.82</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>2.2</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -1721,10 +1721,10 @@
         <v>1.48</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="AE9" t="n">
         <v>1.41</v>
@@ -1736,10 +1736,10 @@
         <v>3.49</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ9" t="n">
         <v>1.53</v>
@@ -1760,10 +1760,10 @@
         <v>1.48</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.93</v>
+        <v>2.58</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1857,13 +1857,13 @@
         <v>0.42</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="AE10" t="n">
         <v>1.85</v>
@@ -1942,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="K11" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="L11" t="n">
-        <v>6.06</v>
+        <v>5.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.33</v>
@@ -1969,10 +1969,10 @@
         <v>4.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="U11" t="n">
         <v>1.83</v>
@@ -2047,7 +2047,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2063,130 +2063,130 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.75</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="N12" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="AA12" t="n">
         <v>1.09</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="AE12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1.55</v>
       </c>
-      <c r="AF12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AP12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.22</v>
       </c>
-      <c r="R13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.27</v>
-      </c>
       <c r="Y13" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.67</v>
+        <v>0.73</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AK13" t="n">
         <v>3.3</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.25</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.2</v>
       </c>
-      <c r="U14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="Z14" t="n">
         <v>1.73</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.91</v>
+        <v>3.07</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15">
@@ -2480,55 +2480,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.85</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.66</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.62</v>
@@ -2537,67 +2537,67 @@
         <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.73</v>
+        <v>0.82</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.07</v>
+        <v>1.95</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AK15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP15" t="n">
         <v>2.75</v>
       </c>
-      <c r="AL15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>2.85</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="16">
@@ -2637,13 +2637,13 @@
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>5.18</v>
+        <v>4.85</v>
       </c>
       <c r="M16" t="n">
         <v>1.3</v>
@@ -2664,10 +2664,10 @@
         <v>4.33</v>
       </c>
       <c r="S16" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
         <v>1.67</v>
@@ -2691,13 +2691,13 @@
         <v>0.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AE16" t="n">
         <v>1.34</v>
@@ -2742,7 +2742,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2758,31 +2758,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>2.23</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>1.9</v>
       </c>
       <c r="M17" t="n">
         <v>1.36</v>
@@ -2791,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
@@ -2803,10 +2803,10 @@
         <v>3.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1.67</v>
@@ -2815,37 +2815,37 @@
         <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="AB17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC17" t="n">
         <v>1.41</v>
       </c>
-      <c r="AC17" t="n">
-        <v>1.39</v>
-      </c>
       <c r="AD17" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2854,28 +2854,28 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AL17" t="n">
         <v>1.55</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="18">
@@ -2897,124 +2897,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>2.88</v>
       </c>
       <c r="H18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.56</v>
-      </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.25</v>
       </c>
-      <c r="X18" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="AE18" t="n">
         <v>1.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AI18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="19">
@@ -3036,31 +3036,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3069,61 +3069,61 @@
         <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="S19" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AF19" t="n">
         <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="AH19" t="n">
         <v>1.22</v>
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>2.23</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.72</v>
+        <v>2.59</v>
       </c>
       <c r="M20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.4</v>
       </c>
-      <c r="N20" t="n">
+      <c r="R20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK20" t="n">
         <v>2.75</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AL20" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.45</v>
+        <v>2.04</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.54</v>
+        <v>2.13</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>2.78</v>
       </c>
       <c r="M21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.02</v>
       </c>
       <c r="P21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="T21" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AA21" t="n">
         <v>1.18</v>
       </c>
       <c r="AB21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.46</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="22">
@@ -3453,55 +3453,55 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="K22" t="n">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="L22" t="n">
-        <v>2.77</v>
+        <v>3.8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="R22" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="U22" t="n">
         <v>1.62</v>
@@ -3510,37 +3510,37 @@
         <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="X22" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.82</v>
+        <v>2.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5</v>
+        <v>1.18</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AE22" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.95</v>
+        <v>4.42</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -3552,25 +3552,25 @@
         <v>1.34</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AM22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AP22" t="n">
         <v>2.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23">
@@ -3592,37 +3592,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>2.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.05</v>
@@ -3634,52 +3634,52 @@
         <v>1.29</v>
       </c>
       <c r="R23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="X23" t="n">
         <v>1.22</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -3688,28 +3688,28 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AK23" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="24">
@@ -3731,124 +3731,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.3</v>
       </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>4.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>3.7</v>
+        <v>1.78</v>
       </c>
       <c r="M24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK24" t="n">
         <v>3.25</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AL24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AM24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP24" t="n">
         <v>2.45</v>
       </c>
-      <c r="AN24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="25">
@@ -3870,55 +3870,55 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="M25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
         <v>1.8</v>
@@ -3927,67 +3927,67 @@
         <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
         <v>1.29</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.2</v>
+        <v>2.91</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="26">
@@ -4027,13 +4027,13 @@
         <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L26" t="n">
-        <v>2.7</v>
+        <v>2.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.4</v>
@@ -4054,10 +4054,10 @@
         <v>3.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>1.75</v>
@@ -4081,13 +4081,13 @@
         <v>2</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AC26" t="n">
         <v>1.39</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AE26" t="n">
         <v>1.82</v>
@@ -4099,10 +4099,10 @@
         <v>2.39</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.27</v>
@@ -4166,13 +4166,13 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.33</v>
@@ -4193,10 +4193,10 @@
         <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
@@ -4220,13 +4220,13 @@
         <v>2.18</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>1.45</v>
@@ -4238,10 +4238,10 @@
         <v>3.28</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ27" t="n">
         <v>1.27</v>
@@ -4305,13 +4305,13 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>1.4</v>
@@ -4332,10 +4332,10 @@
         <v>3.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>1.75</v>
@@ -4359,10 +4359,10 @@
         <v>0.91</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AD28" t="n">
         <v>2.91</v>
@@ -4377,10 +4377,10 @@
         <v>2.2</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ28" t="n">
         <v>1.34</v>
@@ -4444,13 +4444,13 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.4</v>
@@ -4471,10 +4471,10 @@
         <v>3.3</v>
       </c>
       <c r="S29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>1.95</v>
@@ -4498,13 +4498,13 @@
         <v>0.55</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="AE29" t="n">
         <v>1.45</v>
@@ -4583,13 +4583,13 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="K30" t="n">
         <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="M30" t="n">
         <v>1.44</v>
@@ -4610,10 +4610,10 @@
         <v>3.1</v>
       </c>
       <c r="S30" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
         <v>1.83</v>
@@ -4637,13 +4637,13 @@
         <v>1.25</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AE30" t="n">
         <v>2.1</v>
@@ -4722,13 +4722,13 @@
         <v>2.25</v>
       </c>
       <c r="J31" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,10 +4749,10 @@
         <v>3.6</v>
       </c>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>1.83</v>
@@ -4776,13 +4776,13 @@
         <v>2.42</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AC31" t="n">
         <v>1.39</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="AE31" t="n">
         <v>2.9</v>
@@ -4861,13 +4861,13 @@
         <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>1.33</v>
@@ -4915,13 +4915,13 @@
         <v>1.17</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AE32" t="n">
         <v>1.52</v>
@@ -4933,10 +4933,10 @@
         <v>3.1</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ32" t="n">
         <v>1.31</v>
@@ -4966,7 +4966,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4982,124 +4982,124 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>2.21</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
-        <v>4.28</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="P33" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="R33" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="S33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z33" t="n">
         <v>1.67</v>
       </c>
-      <c r="T33" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AA33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC33" t="n">
         <v>1.09</v>
       </c>
-      <c r="AB33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AD33" t="n">
-        <v>2.68</v>
+        <v>2.23</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AF33" t="n">
         <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="AH33" t="n">
         <v>1.2</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AK33" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AP33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="34">
@@ -5121,31 +5121,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.35</v>
+        <v>5.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L34" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
         <v>1.36</v>
@@ -5154,22 +5154,22 @@
         <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="R34" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
         <v>1.83</v>
@@ -5178,43 +5178,43 @@
         <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="X34" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="Z34" t="n">
         <v>1.17</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="AE34" t="n">
-        <v>3.86</v>
+        <v>4.11</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ34" t="n">
         <v>1.27</v>
@@ -5260,124 +5260,124 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>1.43</v>
       </c>
       <c r="K35" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y35" t="n">
         <v>2.75</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P35" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="Z35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1.8</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AP35" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="36">
@@ -5399,130 +5399,130 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P36" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="R36" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.91</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="X36" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="Y36" t="n">
         <v>1.57</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="AE36" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AF36" t="n">
         <v>8</v>
       </c>
       <c r="AG36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN36" t="n">
         <v>1.95</v>
       </c>
-      <c r="AH36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AO36" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -5538,124 +5538,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>5.75</v>
+        <v>2.18</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.55</v>
+        <v>2.94</v>
       </c>
       <c r="M37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC37" t="n">
         <v>1.04</v>
       </c>
-      <c r="P37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="AD37" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM37" t="n">
         <v>1.83</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AN37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="38">
@@ -5695,13 +5695,13 @@
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M38" t="n">
         <v>1.44</v>
@@ -5725,7 +5725,7 @@
         <v>2.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U38" t="n">
         <v>1.83</v>
@@ -5749,13 +5749,13 @@
         <v>1</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AE38" t="n">
         <v>1.52</v>
@@ -5767,10 +5767,10 @@
         <v>3.1</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.27</v>
@@ -5834,13 +5834,13 @@
         <v>2.25</v>
       </c>
       <c r="J39" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M39" t="n">
         <v>1.44</v>
@@ -5861,10 +5861,10 @@
         <v>3.2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
         <v>2.1</v>
@@ -5973,13 +5973,13 @@
         <v>5.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="M40" t="n">
         <v>1.4</v>
@@ -6000,10 +6000,10 @@
         <v>3.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
         <v>1.95</v>
@@ -6094,124 +6094,124 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I41" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L41" t="n">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="M41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O41" t="n">
         <v>1.03</v>
       </c>
       <c r="P41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="R41" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="T41" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN41" t="n">
         <v>1.8</v>
       </c>
-      <c r="W41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AM41" t="n">
+      <c r="AO41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP41" t="n">
         <v>2.3</v>
       </c>
-      <c r="AN41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="42">
@@ -6251,13 +6251,13 @@
         <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="M42" t="n">
         <v>1.36</v>
@@ -6278,10 +6278,10 @@
         <v>3.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
         <v>1.67</v>
@@ -6305,13 +6305,13 @@
         <v>1.42</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AC42" t="n">
         <v>1.35</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="AE42" t="n">
         <v>2.18</v>
@@ -6323,10 +6323,10 @@
         <v>1.97</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ42" t="n">
         <v>1.26</v>
@@ -6390,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="K43" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="L43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T43" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -969,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.25</v>
@@ -996,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1368,31 +1368,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
         <v>2.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,79 +1413,79 @@
         <v>3.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.91</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.03</v>
@@ -1546,85 +1546,85 @@
         <v>13</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH8" t="n">
         <v>1.25</v>
       </c>
-      <c r="R8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="AI8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="n">
         <v>1.8</v>
       </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AN8" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AP8" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9">
@@ -1646,55 +1646,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -1703,67 +1703,67 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="AE9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.41</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -1785,100 +1785,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD10" t="n">
         <v>3.2</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.62</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.28</v>
+        <v>4.07</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.31</v>
@@ -1887,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AM10" t="n">
         <v>2.2</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AO10" t="n">
         <v>1.7</v>
@@ -1902,7 +1902,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -1924,43 +1924,43 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
         <v>1.22</v>
@@ -1969,79 +1969,79 @@
         <v>4.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK11" t="n">
         <v>2.65</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AL11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN11" t="n">
         <v>2.2</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AO11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP11" t="n">
         <v>3</v>
       </c>
-      <c r="AL11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12">
@@ -2063,40 +2063,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P12" t="n">
         <v>15</v>
@@ -2108,85 +2108,85 @@
         <v>4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Z12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.91</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.82</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.39</v>
+        <v>2.1</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="W13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y13" t="n">
         <v>2.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Z13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AL13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.75</v>
       </c>
-      <c r="AE13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.97</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R14" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="Z14" t="n">
         <v>1.73</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.68</v>
+        <v>2.83</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>3.07</v>
+        <v>1.91</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="15">
@@ -2480,55 +2480,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.62</v>
@@ -2537,67 +2537,67 @@
         <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.82</v>
+        <v>1.73</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AE15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM15" t="n">
         <v>2.05</v>
       </c>
-      <c r="AF15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AN15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>1.34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1.37</v>
       </c>
     </row>
     <row r="16">
@@ -2619,130 +2619,130 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Z16" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AD16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
         <v>2.8</v>
       </c>
-      <c r="AE16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4.07</v>
-      </c>
       <c r="AH16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AP16" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2758,31 +2758,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.36</v>
@@ -2791,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
@@ -2803,10 +2803,10 @@
         <v>3.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>1.67</v>
@@ -2815,67 +2815,67 @@
         <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL17" t="n">
         <v>1.55</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="18">
@@ -2897,130 +2897,130 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="K18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.3</v>
       </c>
-      <c r="L18" t="n">
-        <v>2.84</v>
-      </c>
       <c r="M18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.36</v>
       </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AA18" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.78</v>
+        <v>2.21</v>
       </c>
       <c r="AE18" t="n">
         <v>1.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,128 +3032,128 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.11</v>
+        <v>5.25</v>
       </c>
       <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R19" t="n">
         <v>3.2</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="S19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.5</v>
       </c>
-      <c r="N19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P19" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="AA19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC19" t="n">
         <v>1.42</v>
       </c>
-      <c r="R19" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AD19" t="n">
-        <v>2.21</v>
+        <v>2.55</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="AF19" t="n">
         <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.44</v>
+        <v>1.47</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AI19" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.75</v>
+        <v>2.08</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="20">
@@ -3175,130 +3175,130 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="H20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="W20" t="n">
         <v>1.83</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI20" t="n">
         <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,128 +3310,128 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R21" t="n">
         <v>3.4</v>
       </c>
-      <c r="L21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC21" t="n">
         <v>1.22</v>
       </c>
-      <c r="R21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AD21" t="n">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="AF21" t="n">
         <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="22">
@@ -3453,55 +3453,55 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T22" t="n">
         <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.35</v>
       </c>
       <c r="U22" t="n">
         <v>1.62</v>
@@ -3510,73 +3510,73 @@
         <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="X22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1.17</v>
       </c>
-      <c r="Y22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ22" t="n">
         <v>1.34</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AM22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AP22" t="n">
         <v>2.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3592,130 +3592,130 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN23" t="n">
         <v>2.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AO23" t="n">
         <v>1.55</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AP23" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3731,112 +3731,112 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J24" t="n">
         <v>2.2</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.15</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.78</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>1.3</v>
       </c>
-      <c r="R24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AK24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AN24" t="n">
         <v>2</v>
@@ -3845,10 +3845,10 @@
         <v>1.8</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="25">
@@ -3870,37 +3870,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>2.94</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.07</v>
@@ -3909,85 +3909,85 @@
         <v>8</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.8</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="X25" t="n">
         <v>1.29</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.09</v>
+        <v>0.45</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.91</v>
+        <v>2.1</v>
       </c>
       <c r="AH25" t="n">
         <v>1.22</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="AN25" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26">
@@ -4027,13 +4027,13 @@
         <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.71</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.4</v>
@@ -4054,10 +4054,10 @@
         <v>3.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
         <v>1.75</v>
@@ -4166,13 +4166,13 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.33</v>
@@ -4193,10 +4193,10 @@
         <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
@@ -4308,10 +4308,10 @@
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.4</v>
@@ -4332,10 +4332,10 @@
         <v>3.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
         <v>1.75</v>
@@ -4444,13 +4444,13 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.4</v>
@@ -4471,10 +4471,10 @@
         <v>3.3</v>
       </c>
       <c r="S29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
         <v>1.95</v>
@@ -4583,13 +4583,13 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
         <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.44</v>
@@ -4610,10 +4610,10 @@
         <v>3.1</v>
       </c>
       <c r="S30" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
         <v>1.83</v>
@@ -4722,13 +4722,13 @@
         <v>2.25</v>
       </c>
       <c r="J31" t="n">
-        <v>4.45</v>
+        <v>5.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,10 +4749,10 @@
         <v>3.6</v>
       </c>
       <c r="S31" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
         <v>1.83</v>
@@ -4861,13 +4861,13 @@
         <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.33</v>
@@ -4888,10 +4888,10 @@
         <v>4.2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.67</v>
@@ -4966,7 +4966,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4982,124 +4982,124 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W33" t="n">
         <v>2.05</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="X33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AL33" t="n">
         <v>1.5</v>
       </c>
-      <c r="N33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AM33" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="34">
@@ -5121,100 +5121,100 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.3</v>
+        <v>1.44</v>
       </c>
       <c r="K34" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S34" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="X34" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.16</v>
+        <v>2.75</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.17</v>
+        <v>2.42</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.62</v>
+        <v>0.95</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="AE34" t="n">
-        <v>4.11</v>
+        <v>1.34</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.31</v>
+        <v>3.86</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AI34" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="AJ34" t="n">
         <v>1.27</v>
@@ -5244,7 +5244,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5260,124 +5260,124 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AE35" t="n">
         <v>1.91</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="AF35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI35" t="n">
         <v>3.4</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AJ35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="36">
@@ -5417,13 +5417,13 @@
         <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M36" t="n">
         <v>1.4</v>
@@ -5444,10 +5444,10 @@
         <v>3.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -5522,7 +5522,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -5538,124 +5538,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.2</v>
       </c>
-      <c r="L37" t="n">
-        <v>2.94</v>
-      </c>
       <c r="M37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P37" t="n">
         <v>8.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="R37" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.8</v>
       </c>
-      <c r="U37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AF37" t="n">
         <v>8</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AK37" t="n">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="AM37" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AN37" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AP37" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="38">
@@ -5677,55 +5677,55 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.1</v>
       </c>
-      <c r="I38" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.96</v>
+        <v>5.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>3.65</v>
+        <v>1.57</v>
       </c>
       <c r="M38" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N38" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="R38" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
         <v>1.83</v>
@@ -5734,43 +5734,43 @@
         <v>1.83</v>
       </c>
       <c r="W38" t="n">
-        <v>1.26</v>
+        <v>2.3</v>
       </c>
       <c r="X38" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.12</v>
+        <v>1.62</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.52</v>
+        <v>4.11</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG38" t="n">
-        <v>3.1</v>
+        <v>1.31</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AI38" t="n">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.27</v>
@@ -5782,13 +5782,13 @@
         <v>1.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AP38" t="n">
         <v>2.45</v>
@@ -5800,7 +5800,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -5812,35 +5812,35 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>2.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="M39" t="n">
         <v>1.44</v>
@@ -5861,85 +5861,85 @@
         <v>3.2</v>
       </c>
       <c r="S39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V39" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W39" t="n">
-        <v>2.25</v>
+        <v>1.26</v>
       </c>
       <c r="X39" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.55</v>
+        <v>2.81</v>
       </c>
       <c r="AE39" t="n">
-        <v>3.25</v>
+        <v>1.52</v>
       </c>
       <c r="AF39" t="n">
         <v>8</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.47</v>
+        <v>3.1</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.75</v>
+        <v>4.45</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.08</v>
+        <v>3.25</v>
       </c>
       <c r="AL39" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="AP39" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -5951,128 +5951,128 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.63</v>
+        <v>3.8</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>4.85</v>
+        <v>1.85</v>
       </c>
       <c r="M40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
         <v>1.05</v>
       </c>
       <c r="P40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S40" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U40" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W40" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
         <v>1.26</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.25</v>
+        <v>1.17</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.43</v>
+        <v>2.74</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.47</v>
+        <v>3.86</v>
       </c>
       <c r="AF40" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK40" t="n">
         <v>3.25</v>
       </c>
-      <c r="AH40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>2.14</v>
-      </c>
       <c r="AL40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN40" t="n">
         <v>2</v>
       </c>
-      <c r="AM40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AO40" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="AP40" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="41">
@@ -6112,13 +6112,13 @@
         <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M41" t="n">
         <v>1.33</v>
@@ -6139,10 +6139,10 @@
         <v>4.2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="T41" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U41" t="n">
         <v>1.62</v>
@@ -6251,13 +6251,13 @@
         <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M42" t="n">
         <v>1.36</v>
@@ -6278,10 +6278,10 @@
         <v>3.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="U42" t="n">
         <v>1.67</v>
@@ -6390,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="K43" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>2.73</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
